--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3086.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3086.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.129211581287654</v>
+        <v>1.256247043609619</v>
       </c>
       <c r="B1">
-        <v>2.380539023220537</v>
+        <v>2.251749515533447</v>
       </c>
       <c r="C1">
-        <v>3.867250663310133</v>
+        <v>4.539510250091553</v>
       </c>
       <c r="D1">
-        <v>4.22148620970398</v>
+        <v>2.918430805206299</v>
       </c>
       <c r="E1">
-        <v>1.272323295520638</v>
+        <v>1.370581984519958</v>
       </c>
     </row>
   </sheetData>
